--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5539DC-8C8B-CB4F-954A-CA5A1C632750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926618B7-C4D3-4046-A3E4-686AF9009975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="16">
   <si>
     <t>Send</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>na</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
   </si>
   <si>
     <t>Discovery</t>
@@ -485,21 +482,21 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="J1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -540,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
@@ -555,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -563,31 +560,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -604,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
@@ -619,7 +616,7 @@
         <v>4</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -627,31 +624,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -668,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
@@ -683,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -691,39 +688,39 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -735,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
@@ -755,31 +752,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -798,7 +795,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -846,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>2</v>
@@ -861,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
@@ -869,31 +866,31 @@
         <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -910,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>5</v>
@@ -925,7 +922,7 @@
         <v>4</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -933,31 +930,31 @@
         <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -974,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>4</v>
@@ -989,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -997,39 +994,39 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1041,10 +1038,10 @@
         <v>4</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>2</v>
@@ -1061,43 +1058,43 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="J27" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -1138,7 +1135,7 @@
         <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>2</v>
@@ -1153,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -1170,22 +1167,22 @@
         <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1202,7 +1199,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>5</v>
@@ -1217,7 +1214,7 @@
         <v>4</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1234,22 +1231,22 @@
         <v>15</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
@@ -1266,7 +1263,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>4</v>
@@ -1281,7 +1278,7 @@
         <v>2</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -1298,30 +1295,30 @@
         <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1333,10 +1330,10 @@
         <v>4</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>2</v>
@@ -1353,31 +1350,31 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1388,12 +1385,12 @@
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="K2:N2"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="K15:N15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926618B7-C4D3-4046-A3E4-686AF9009975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5780C-0234-324B-A3A2-B12764D977D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -712,7 +712,7 @@
         <v>14</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -767,16 +767,16 @@
         <v>6</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E5780C-0234-324B-A3A2-B12764D977D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A800A8-0601-2B45-99EE-A9A6250FB6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="17">
   <si>
     <t>Send</t>
   </si>
@@ -85,15 +85,25 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Swift</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,15 +144,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -479,51 +501,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEAE6BA-52AC-474F-A200-A035ADEAF8D9}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -539,6 +565,9 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J3" s="1" t="s">
         <v>2</v>
       </c>
@@ -554,8 +583,11 @@
       <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,6 +603,9 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
       </c>
@@ -586,8 +621,11 @@
       <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -603,6 +641,9 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,8 +659,11 @@
       <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -635,6 +679,9 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,8 +697,11 @@
       <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -667,6 +717,9 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
@@ -682,8 +735,11 @@
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -699,6 +755,9 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,8 +773,11 @@
       <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -731,6 +793,9 @@
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
@@ -746,8 +811,11 @@
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,6 +831,9 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F10" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,574 +849,759 @@
       <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="O10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="J14" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="J15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="J15" s="1" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="K19" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="M21" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="J27" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="J29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="J28" s="1" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="K33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="M35" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1361,6 +1617,9 @@
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F36" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
@@ -1374,23 +1633,178 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="J29:O29"/>
+    <mergeCell ref="K30:O30"/>
+    <mergeCell ref="J15:O15"/>
+    <mergeCell ref="K16:O16"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A800A8-0601-2B45-99EE-A9A6250FB6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7DCEB1-8738-6043-B43F-B05D7CC82A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -144,27 +144,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,51 +497,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEAE6BA-52AC-474F-A200-A035ADEAF8D9}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -565,7 +559,7 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -583,7 +577,7 @@
       <c r="N3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -603,7 +597,7 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -621,7 +615,7 @@
       <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -641,7 +635,7 @@
       <c r="E5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -659,7 +653,7 @@
       <c r="N5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
       <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -697,7 +691,7 @@
       <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -717,7 +711,7 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -735,7 +729,7 @@
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -755,7 +749,7 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -773,7 +767,7 @@
       <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -793,7 +787,7 @@
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -811,7 +805,7 @@
       <c r="N9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -831,7 +825,7 @@
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -849,15 +843,15 @@
       <c r="N10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -869,13 +863,13 @@
       <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -887,15 +881,15 @@
       <c r="N11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -907,13 +901,13 @@
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="3" t="s">
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -925,57 +919,57 @@
       <c r="N12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="J15" s="2" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="J16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
@@ -993,7 +987,7 @@
       <c r="E17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1011,7 +1005,7 @@
       <c r="N17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1031,7 +1025,7 @@
       <c r="E18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1049,7 +1043,7 @@
       <c r="N18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1069,7 +1063,7 @@
       <c r="E19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1087,7 +1081,7 @@
       <c r="N19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1107,7 +1101,7 @@
       <c r="E20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1125,7 +1119,7 @@
       <c r="N20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1145,7 +1139,7 @@
       <c r="E21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1163,7 +1157,7 @@
       <c r="N21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1183,7 +1177,7 @@
       <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1201,7 +1195,7 @@
       <c r="N22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1221,7 +1215,7 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1239,7 +1233,7 @@
       <c r="N23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1259,7 +1253,7 @@
       <c r="E24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1277,15 +1271,15 @@
       <c r="N24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1297,13 +1291,13 @@
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L25" s="1" t="s">
@@ -1315,15 +1309,15 @@
       <c r="N25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1335,13 +1329,13 @@
       <c r="E26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L26" s="1" t="s">
@@ -1353,63 +1347,63 @@
       <c r="N26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="6"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="6"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="J29" s="2" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="J29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1427,7 +1421,7 @@
       <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -1445,7 +1439,7 @@
       <c r="N31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1454,36 +1448,36 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O32" s="3" t="s">
+      <c r="O32" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1503,7 +1497,7 @@
       <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -1521,7 +1515,7 @@
       <c r="N33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1530,36 +1524,36 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1579,7 +1573,7 @@
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -1597,7 +1591,7 @@
       <c r="N35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1606,36 +1600,36 @@
         <v>6</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1655,7 +1649,7 @@
       <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -1673,7 +1667,7 @@
       <c r="N37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1693,7 +1687,7 @@
       <c r="E38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -1711,15 +1705,15 @@
       <c r="N38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="3" t="s">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1731,13 +1725,13 @@
       <c r="E39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="F39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L39" s="1" t="s">
@@ -1749,15 +1743,15 @@
       <c r="N39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="3" t="s">
+      <c r="A40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1769,13 +1763,13 @@
       <c r="E40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="3" t="s">
+      <c r="F40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="L40" s="1" t="s">
@@ -1787,12 +1781,16 @@
       <c r="N40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="K2:O2"/>
     <mergeCell ref="B30:F30"/>
     <mergeCell ref="J29:O29"/>
     <mergeCell ref="K30:O30"/>
@@ -1801,10 +1799,6 @@
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7DCEB1-8738-6043-B43F-B05D7CC82A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01B99C-D9B8-0642-A46F-72473C662E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19700" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -498,7 +497,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,7 +597,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>6</v>
@@ -674,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>6</v>
@@ -750,7 +749,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>6</v>
@@ -826,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>6</v>
@@ -890,19 +889,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>6</v>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA04B4D-B8B8-D448-BA04-10CA04B50FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B51AE3-0F30-4844-9ABD-70042CA5F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -82,13 +82,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
     <t>Send Files (Without Encryption)</t>
   </si>
   <si>
     <t>Send Files (With Encryption)</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -181,8 +181,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,8 +193,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,21 +532,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="297" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="2"/>
       <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
@@ -612,31 +612,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -676,31 +676,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -740,31 +740,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -804,31 +804,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -904,28 +904,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
@@ -968,28 +968,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
@@ -1032,28 +1032,28 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
@@ -1096,16 +1096,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6</v>
@@ -1125,14 +1125,14 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="I25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1196,28 +1196,28 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>14</v>
@@ -1260,28 +1260,28 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>14</v>
@@ -1324,28 +1324,28 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -1388,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6</v>
@@ -1488,28 +1488,28 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>14</v>
@@ -1552,28 +1552,28 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>14</v>
@@ -1616,28 +1616,28 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>14</v>
@@ -1680,16 +1680,16 @@
         <v>6</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>6</v>
@@ -1727,5 +1727,6 @@
     <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B51AE3-0F30-4844-9ABD-70042CA5F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7970FE-5F64-5A4C-91B7-D72973CED227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>Send Files (With Encryption)</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Yes/No</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G35" zoomScale="297" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="185" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1709,12 +1709,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1725,6 +1719,12 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7970FE-5F64-5A4C-91B7-D72973CED227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C996426-85C9-8445-B5E7-2DE6BCDF94C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -88,17 +88,24 @@
     <t>Send Files (With Encryption)</t>
   </si>
   <si>
-    <t>Yes/No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,6 +201,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="185" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,16 +749,16 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -803,16 +813,16 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1709,6 +1719,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1719,12 +1735,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C996426-85C9-8445-B5E7-2DE6BCDF94C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2C091-5535-EB4E-AB0D-650899292BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -88,24 +88,17 @@
     <t>Send Files (With Encryption)</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Yes/No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -201,9 +194,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="185" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="185" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -749,16 +739,16 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -813,16 +803,16 @@
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1719,12 +1709,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1735,6 +1719,12 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F2C091-5535-EB4E-AB0D-650899292BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45068662-5E1F-6744-8C72-0AF809B3489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="19">
   <si>
     <t>Send</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Yes/No</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -532,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="185" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,31 +615,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -676,28 +679,28 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>17</v>
@@ -740,28 +743,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>17</v>
@@ -804,16 +807,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
@@ -904,13 +907,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>17</v>
@@ -919,13 +922,13 @@
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
@@ -968,13 +971,13 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
@@ -983,13 +986,13 @@
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
@@ -1032,13 +1035,13 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>17</v>
@@ -1047,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
@@ -1196,13 +1199,13 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>17</v>
@@ -1211,13 +1214,13 @@
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>14</v>
@@ -1260,13 +1263,13 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>17</v>
@@ -1275,13 +1278,13 @@
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>14</v>
@@ -1324,13 +1327,13 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>17</v>
@@ -1339,13 +1342,13 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -1488,13 +1491,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>17</v>
@@ -1503,13 +1506,13 @@
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>14</v>
@@ -1552,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>17</v>
@@ -1567,13 +1570,13 @@
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>14</v>
@@ -1616,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>17</v>
@@ -1631,13 +1634,13 @@
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>14</v>
@@ -1709,6 +1712,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1719,12 +1728,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45068662-5E1F-6744-8C72-0AF809B3489D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D33A63-650B-6348-92A0-C7698A497FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="193" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="193" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
         <v>18</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -825,13 +825,13 @@
         <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -916,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
@@ -980,7 +980,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
@@ -1044,7 +1044,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
@@ -1102,13 +1102,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6</v>
@@ -1208,7 +1208,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6</v>
@@ -1272,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6</v>
@@ -1336,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6</v>
@@ -1394,13 +1394,13 @@
         <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6</v>
@@ -1500,7 +1500,7 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>6</v>
@@ -1628,7 +1628,7 @@
         <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>6</v>
@@ -1686,13 +1686,13 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>6</v>
@@ -1712,12 +1712,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1728,6 +1722,12 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D33A63-650B-6348-92A0-C7698A497FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9904A9-9C63-1B4D-A283-48FC6C9B6D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="193" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="193" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -822,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>18</v>
@@ -1099,7 +1099,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -1391,7 +1391,7 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>18</v>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9904A9-9C63-1B4D-A283-48FC6C9B6D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC813451-617A-F34D-A1C2-2495822E21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="18">
   <si>
     <t>Send</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Yes/No</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -535,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="193" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="139" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44:L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,31 +612,31 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -679,31 +676,31 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -743,31 +740,31 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -807,31 +804,31 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -907,28 +904,28 @@
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
@@ -971,28 +968,28 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
@@ -1035,28 +1032,28 @@
         <v>6</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
@@ -1099,16 +1096,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>6</v>
@@ -1199,28 +1196,28 @@
         <v>6</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>14</v>
@@ -1263,28 +1260,28 @@
         <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>14</v>
@@ -1327,28 +1324,28 @@
         <v>6</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>14</v>
@@ -1391,16 +1388,16 @@
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>6</v>
@@ -1491,28 +1488,28 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>14</v>
@@ -1555,28 +1552,28 @@
         <v>6</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>14</v>
@@ -1619,28 +1616,28 @@
         <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>14</v>
@@ -1686,13 +1683,13 @@
         <v>17</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>6</v>
@@ -1712,6 +1709,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="I37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="I13:M13"/>
     <mergeCell ref="J14:M14"/>
     <mergeCell ref="I25:M25"/>
@@ -1722,12 +1725,6 @@
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/Test List.xlsx
+++ b/Test List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/armaan/Developer/Cross-Platform-Media-Sharing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC813451-617A-F34D-A1C2-2495822E21EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689EB3E-1C84-A542-8B1F-7A1559490A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="34200" windowHeight="19500" xr2:uid="{A8552854-C653-244D-8B19-23593DF13A92}"/>
   </bookViews>
@@ -88,7 +88,7 @@
     <t>Send Files (With Encryption)</t>
   </si>
   <si>
-    <t>Yes/No</t>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FEBBFA-2179-E040-B0DF-2B80AAFE4EA3}">
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="139" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44:L44"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="139" workbookViewId="0">
+      <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
